--- a/df_1/df_1_7.xlsx
+++ b/df_1/df_1_7.xlsx
@@ -659,377 +659,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4135 %</t>
+          <t>0,4135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3914 %</t>
+          <t>0,3914</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.8275 %</t>
+          <t>0,8275</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.1642 %</t>
+          <t>0,1642</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.093 %</t>
+          <t>0,093</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2353 %</t>
+          <t>0,2353</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.4174 %</t>
+          <t>0,4174</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3055 %</t>
+          <t>0,3055</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.1152 %</t>
+          <t>0,1152</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.104 %</t>
+          <t>0,104</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.5023 %</t>
+          <t>0,5023</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.0891 %</t>
+          <t>0,0891</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.1877 %</t>
+          <t>0,1877</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.1037 %</t>
+          <t>0,1037</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.1832 %</t>
+          <t>0,1832</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.1255 %</t>
+          <t>0,1255</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.071 %</t>
+          <t>0,071</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.1218 %</t>
+          <t>0,1218</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.4424 %</t>
+          <t>0,4424</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.2288 %</t>
+          <t>0,2288</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.113 %</t>
+          <t>0,113</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.0825 %</t>
+          <t>0,0825</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.158 %</t>
+          <t>0,158</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4386 %</t>
+          <t>0,4386</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.1516 %</t>
+          <t>0,1516</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.2797 %</t>
+          <t>0,2797</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.1005 %</t>
+          <t>0,1005</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.1889 %</t>
+          <t>0,1889</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.3021 %</t>
+          <t>0,3021</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.063 %</t>
+          <t>0,063</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.0965 %</t>
+          <t>0,0965</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.7495 %</t>
+          <t>0,7495</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.0597 %</t>
+          <t>0,0597</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.168 %</t>
+          <t>0,168</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.1389 %</t>
+          <t>0,1389</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5474 %</t>
+          <t>0,5474</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.2092 %</t>
+          <t>0,2092</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.2002 %</t>
+          <t>0,2002</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.1734 %</t>
+          <t>0,1734</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.6301 %</t>
+          <t>0,6301</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.1984 %</t>
+          <t>0,1984</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.207 %</t>
+          <t>0,207</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.2463 %</t>
+          <t>0,2463</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.6786 %</t>
+          <t>0,6786</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.2588 %</t>
+          <t>0,2588</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.2843 %</t>
+          <t>0,2843</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.5211 %</t>
+          <t>0,5211</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1.2419 %</t>
+          <t>1,2419</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.153 %</t>
+          <t>0,153</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.2374 %</t>
+          <t>0,2374</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.1468 %</t>
+          <t>0,1468</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.6754 %</t>
+          <t>0,6754</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.0782 %</t>
+          <t>0,0782</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.1702 %</t>
+          <t>0,1702</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.086 %</t>
+          <t>0,086</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.5568 %</t>
+          <t>0,5568</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.1175 %</t>
+          <t>0,1175</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.0881 %</t>
+          <t>0,0881</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.1839 %</t>
+          <t>0,1839</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.124 %</t>
+          <t>0,124</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.2298 %</t>
+          <t>0,2298</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.1676 %</t>
+          <t>0,1676</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.11 %</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.1693 %</t>
+          <t>0,1693</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.1606 %</t>
+          <t>0,1606</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.0924 %</t>
+          <t>0,0924</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.2835 %</t>
+          <t>0,2835</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.2655 %</t>
+          <t>0,2655</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.1737 %</t>
+          <t>0,1737</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.246 %</t>
+          <t>0,246</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.2353 %</t>
+          <t>0,2353</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.3027 %</t>
+          <t>0,3027</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.5653 %</t>
+          <t>0,5653</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.5525 %</t>
+          <t>0,5525</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>1.1682 %</t>
+          <t>1,1682</t>
         </is>
       </c>
     </row>
@@ -1041,247 +1041,247 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.5288 %</t>
+          <t>0,5288</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.338 %</t>
+          <t>0,338</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0992 %</t>
+          <t>0,0992</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.2933 %</t>
+          <t>0,2933</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.3017 %</t>
+          <t>0,3017</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1425 %</t>
+          <t>0,1425</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0688 %</t>
+          <t>0,0688</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0139 %</t>
+          <t>0,0139</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.119 %</t>
+          <t>0,119</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.0942 %</t>
+          <t>0,0942</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.2215 %</t>
+          <t>0,2215</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.1861 %</t>
+          <t>0,1861</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.1355 %</t>
+          <t>0,1355</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.2764 %</t>
+          <t>0,2764</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3309 %</t>
+          <t>0,3309</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2832 %</t>
+          <t>0,2832</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.1695 %</t>
+          <t>0,1695</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.4142 %</t>
+          <t>0,4142</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.3247 %</t>
+          <t>0,3247</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.1222 %</t>
+          <t>0,1222</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.367 %</t>
+          <t>0,367</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.3785 %</t>
+          <t>0,3785</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.4471 %</t>
+          <t>0,4471</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.2087 %</t>
+          <t>0,2087</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.2978 %</t>
+          <t>0,2978</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.3564 %</t>
+          <t>0,3564</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.4706 %</t>
+          <t>0,4706</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.7497 %</t>
+          <t>0,7497</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4118 %</t>
+          <t>0,4118</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.2093 %</t>
+          <t>0,2093</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.1784 %</t>
+          <t>0,1784</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.3415 %</t>
+          <t>0,3415</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.1652 %</t>
+          <t>0,1652</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2702 %</t>
+          <t>0,2702</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.2671 %</t>
+          <t>0,2671</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.1204 %</t>
+          <t>0,1204</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3126 %</t>
+          <t>0,3126</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4064 %</t>
+          <t>0,4064</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2048 %</t>
+          <t>0,2048</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.1731 %</t>
+          <t>0,1731</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.149 %</t>
+          <t>0,149</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.283 %</t>
+          <t>0,283</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4785 %</t>
+          <t>0,4785</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.5097 %</t>
+          <t>0,5097</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.3995 %</t>
+          <t>0,3995</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.3533 %</t>
+          <t>0,3533</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.3058 %</t>
+          <t>0,3058</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>0.4738 %</t>
+          <t>0,4738</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>0.3879 %</t>
+          <t>0,3879</t>
         </is>
       </c>
     </row>
@@ -1293,262 +1293,262 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.3944 %</t>
+          <t>1,3944</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.4462 %</t>
+          <t>0,4462</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.2948 %</t>
+          <t>0,2948</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.2011 %</t>
+          <t>0,2011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1865 %</t>
+          <t>0,1865</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1647 %</t>
+          <t>0,1647</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.226 %</t>
+          <t>0,226</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2525 %</t>
+          <t>0,2525</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.5858 %</t>
+          <t>0,5858</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.3098 %</t>
+          <t>0,3098</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.1563 %</t>
+          <t>0,1563</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.1454 %</t>
+          <t>0,1454</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.1493 %</t>
+          <t>0,1493</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0835 %</t>
+          <t>0,0835</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0719 %</t>
+          <t>0,0719</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.1071 %</t>
+          <t>0,1071</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.1135 %</t>
+          <t>0,1135</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.1624 %</t>
+          <t>0,1624</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.1535 %</t>
+          <t>0,1535</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0892 %</t>
+          <t>0,0892</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.0555 %</t>
+          <t>0,0555</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0911 %</t>
+          <t>0,0911</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.1457 %</t>
+          <t>0,1457</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.224 %</t>
+          <t>0,224</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.2798 %</t>
+          <t>0,2798</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.3112 %</t>
+          <t>0,3112</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2909 %</t>
+          <t>0,2909</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.2897 %</t>
+          <t>0,2897</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.4119 %</t>
+          <t>0,4119</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.5329 %</t>
+          <t>0,5329</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.75 %</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.0081 %</t>
+          <t>1,0081</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7078 %</t>
+          <t>0,7078</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.2931 %</t>
+          <t>0,2931</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.1917 %</t>
+          <t>0,1917</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.2367 %</t>
+          <t>0,2367</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.2907 %</t>
+          <t>0,2907</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.2844 %</t>
+          <t>0,2844</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.25 %</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.259 %</t>
+          <t>0,259</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.2715 %</t>
+          <t>0,2715</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.2505 %</t>
+          <t>0,2505</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.2689 %</t>
+          <t>0,2689</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.2134 %</t>
+          <t>0,2134</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.1984 %</t>
+          <t>0,1984</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.199 %</t>
+          <t>0,199</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.1854 %</t>
+          <t>0,1854</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>0.1819 %</t>
+          <t>0,1819</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>0.2106 %</t>
+          <t>0,2106</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>0.157 %</t>
+          <t>0,157</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>0.1564 %</t>
+          <t>0,1564</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>0.3292 %</t>
+          <t>0,3292</t>
         </is>
       </c>
     </row>
